--- a/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6300 Pasivos por impuestos corrientes/6301 - Auditoria de Impuestos corrientes.xlsx
+++ b/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6300 Pasivos por impuestos corrientes/6301 - Auditoria de Impuestos corrientes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t xml:space="preserve">Cliente:</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Créditos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuevo</t>
   </si>
   <si>
     <t xml:space="preserve">Valor</t>
@@ -396,7 +399,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +458,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -681,7 +690,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -884,6 +893,26 @@
     </xf>
     <xf numFmtId="173" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="11" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="11" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="11" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="11" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="172" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1136,10 +1165,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H48" activeCellId="0" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1148,11 +1177,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="12" style="1" width="10.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="34.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="13" style="1" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,14 +1197,14 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="n">
+      <c r="K1" s="5" t="n">
         <v>6301</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="AMG1" s="0"/>
+      <c r="L1" s="5"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
@@ -1193,14 +1222,14 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="AMG2" s="0"/>
+      <c r="L2" s="7"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -1218,14 +1247,14 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="K3" s="8" t="n">
         <v>44134</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="AMG3" s="0"/>
+      <c r="L3" s="8"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
@@ -1243,14 +1272,14 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="AMG4" s="0"/>
+      <c r="L4" s="7"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
@@ -1268,18 +1297,17 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="AMG5" s="0"/>
+      <c r="L5" s="9"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
@@ -1304,19 +1332,21 @@
       <c r="G7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
@@ -1337,15 +1367,17 @@
       <c r="G8" s="16" t="n">
         <v>44196</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="15" t="n">
+      <c r="H8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="15" t="n">
         <v>43830</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AMG8" s="0"/>
+      <c r="L8" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
@@ -1358,11 +1390,11 @@
       <c r="E9" s="21"/>
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="AMG9" s="0"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
@@ -1370,30 +1402,30 @@
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28"/>
       <c r="B10" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="30"/>
       <c r="F10" s="31"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="27"/>
-      <c r="AMG10" s="0"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="27"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="n">
@@ -1409,30 +1441,32 @@
         <f aca="false">D11+E11-F11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="36" t="s">
+      <c r="H11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="27" t="n">
-        <f aca="false">G11-J11</f>
-        <v>0</v>
-      </c>
-      <c r="AMG11" s="0"/>
+      <c r="J11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="27" t="n">
+        <f aca="false">G11-K11</f>
+        <v>0</v>
+      </c>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="n">
@@ -1448,20 +1482,22 @@
         <f aca="false">D12+E12-F12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="35" t="s">
+      <c r="H12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="27" t="n">
-        <f aca="false">G12-J12</f>
-        <v>0</v>
-      </c>
-      <c r="AMG12" s="0"/>
+      <c r="J12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="27" t="n">
+        <f aca="false">G12-K12</f>
+        <v>0</v>
+      </c>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
@@ -1483,16 +1519,18 @@
         <f aca="false">D13+E13-F13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="27" t="n">
-        <f aca="false">G13-J13</f>
-        <v>0</v>
-      </c>
-      <c r="AMG13" s="0"/>
+      <c r="H13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="27" t="n">
+        <f aca="false">G13-K13</f>
+        <v>0</v>
+      </c>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
@@ -1514,16 +1552,18 @@
         <f aca="false">D14+E14-F14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="35"/>
+      <c r="H14" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="I14" s="35"/>
-      <c r="J14" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="27" t="n">
-        <f aca="false">G14-J14</f>
-        <v>0</v>
-      </c>
-      <c r="AMG14" s="0"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="27" t="n">
+        <f aca="false">G14-K14</f>
+        <v>0</v>
+      </c>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
@@ -1531,7 +1571,7 @@
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="35"/>
       <c r="B15" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="n">
@@ -1547,28 +1587,30 @@
         <f aca="false">D15+E15-F15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="27" t="n">
-        <f aca="false">G15-J15</f>
-        <v>0</v>
-      </c>
-      <c r="AMG15" s="0"/>
+      <c r="H15" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="27" t="n">
+        <f aca="false">G15-K15</f>
+        <v>0</v>
+      </c>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="n">
@@ -1584,30 +1626,32 @@
         <f aca="false">D16-E16+F16</f>
         <v>60.5900000000001</v>
       </c>
-      <c r="H16" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="43" t="s">
+      <c r="H16" s="32" t="n">
+        <v>60.5900000000001</v>
+      </c>
+      <c r="I16" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="44" t="n">
+      <c r="J16" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="44" t="n">
         <v>110</v>
       </c>
-      <c r="K16" s="27" t="n">
-        <f aca="false">G16-J16</f>
+      <c r="L16" s="27" t="n">
+        <f aca="false">G16-K16</f>
         <v>-49.4099999999999</v>
       </c>
-      <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="47" t="n">
@@ -1623,30 +1667,32 @@
         <f aca="false">D17-E17+F17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="46" t="s">
+      <c r="H17" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="48" t="n">
+      <c r="J17" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="48" t="n">
         <v>550</v>
       </c>
-      <c r="K17" s="27" t="n">
-        <f aca="false">G17-J17</f>
+      <c r="L17" s="27" t="n">
+        <f aca="false">G17-K17</f>
         <v>-550</v>
       </c>
-      <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="48" t="n">
@@ -1662,30 +1708,32 @@
         <f aca="false">D18-E18+F18</f>
         <v>167.95</v>
       </c>
-      <c r="H18" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="49" t="s">
+      <c r="H18" s="32" t="n">
+        <v>167.95</v>
+      </c>
+      <c r="I18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="48" t="n">
+      <c r="J18" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="48" t="n">
         <v>368</v>
       </c>
-      <c r="K18" s="27" t="n">
-        <f aca="false">G18-J18</f>
+      <c r="L18" s="27" t="n">
+        <f aca="false">G18-K18</f>
         <v>-200.05</v>
       </c>
-      <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="48" t="n">
@@ -1701,69 +1749,73 @@
         <f aca="false">D19-E19+F19</f>
         <v>117</v>
       </c>
-      <c r="H19" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="50" t="s">
+      <c r="H19" s="32" t="n">
+        <v>117</v>
+      </c>
+      <c r="I19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="27" t="n">
-        <f aca="false">G19-J19</f>
+      <c r="J19" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="27" t="n">
+        <f aca="false">G19-K19</f>
         <v>117</v>
       </c>
-      <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="48" t="n">
+      <c r="B20" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53" t="n">
         <v>139</v>
       </c>
-      <c r="E20" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="32" t="n">
+      <c r="E20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="52" t="n">
         <f aca="false">D20-E20+F20</f>
         <v>139</v>
       </c>
-      <c r="H20" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="50" t="s">
+      <c r="H20" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="19" t="n">
+      <c r="J20" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="19" t="n">
         <v>117</v>
       </c>
-      <c r="K20" s="27" t="n">
-        <f aca="false">G20-J20</f>
+      <c r="L20" s="27" t="n">
+        <f aca="false">G20-K20</f>
         <v>22</v>
       </c>
-      <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="48" t="n">
@@ -1779,30 +1831,32 @@
         <f aca="false">D21-E21+F21</f>
         <v>55.48</v>
       </c>
-      <c r="H21" s="45" t="s">
-        <v>42</v>
+      <c r="H21" s="32" t="n">
+        <v>55.48</v>
       </c>
       <c r="I21" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="27" t="n">
-        <f aca="false">G21-J21</f>
+      <c r="J21" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="27" t="n">
+        <f aca="false">G21-K21</f>
         <v>55.48</v>
       </c>
-      <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="48" t="n">
@@ -1818,20 +1872,22 @@
         <f aca="false">D22-E22+F22</f>
         <v>1257.13</v>
       </c>
-      <c r="H22" s="45" t="s">
-        <v>44</v>
+      <c r="H22" s="32" t="n">
+        <v>1257.13</v>
       </c>
       <c r="I22" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="27" t="n">
-        <f aca="false">G22-J22</f>
+      <c r="J22" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="27" t="n">
+        <f aca="false">G22-K22</f>
         <v>1257.13</v>
       </c>
-      <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
@@ -1853,16 +1909,18 @@
         <f aca="false">D23-E23+F23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="27" t="n">
-        <f aca="false">G23-J23</f>
-        <v>0</v>
-      </c>
-      <c r="AMG23" s="0"/>
+      <c r="H23" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="27" t="n">
+        <f aca="false">G23-K23</f>
+        <v>0</v>
+      </c>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
@@ -1870,7 +1928,7 @@
     <row r="24" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="35"/>
       <c r="B24" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="48" t="n">
@@ -1886,28 +1944,30 @@
         <f aca="false">D24-E24+F24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="27" t="n">
-        <f aca="false">G24-J24</f>
-        <v>0</v>
-      </c>
-      <c r="AMG24" s="0"/>
+      <c r="H24" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="56"/>
+      <c r="J24" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="27" t="n">
+        <f aca="false">G24-K24</f>
+        <v>0</v>
+      </c>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="30" t="n">
@@ -1923,30 +1983,32 @@
         <f aca="false">D25-E25+F25</f>
         <v>125.87</v>
       </c>
-      <c r="H25" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="51" t="s">
+      <c r="H25" s="32" t="n">
+        <v>125.87</v>
+      </c>
+      <c r="I25" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="19" t="n">
+      <c r="J25" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="19" t="n">
         <v>68</v>
       </c>
-      <c r="K25" s="27" t="n">
-        <f aca="false">G25-J25</f>
+      <c r="L25" s="27" t="n">
+        <f aca="false">G25-K25</f>
         <v>57.8699999999999</v>
       </c>
-      <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="48" t="n">
@@ -1962,30 +2024,32 @@
         <f aca="false">D26-E26+F26</f>
         <v>3888.57</v>
       </c>
-      <c r="H26" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="51" t="s">
+      <c r="H26" s="32" t="n">
+        <v>3888.57</v>
+      </c>
+      <c r="I26" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="19" t="n">
+      <c r="J26" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="19" t="n">
         <v>1757</v>
       </c>
-      <c r="K26" s="27" t="n">
-        <f aca="false">G26-J26</f>
+      <c r="L26" s="27" t="n">
+        <f aca="false">G26-K26</f>
         <v>2131.57</v>
       </c>
-      <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="30" t="n">
@@ -2001,20 +2065,22 @@
         <f aca="false">D27-E27+F27</f>
         <v>252</v>
       </c>
-      <c r="H27" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="51" t="s">
+      <c r="H27" s="32" t="n">
+        <v>252</v>
+      </c>
+      <c r="I27" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="19" t="n">
+      <c r="J27" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="19" t="n">
         <v>258</v>
       </c>
-      <c r="K27" s="27" t="n">
-        <f aca="false">G27-J27</f>
+      <c r="L27" s="27" t="n">
+        <f aca="false">G27-K27</f>
         <v>-6</v>
       </c>
-      <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
@@ -2036,16 +2102,18 @@
         <f aca="false">D28-E28+F28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="27" t="n">
-        <f aca="false">G28-J28</f>
-        <v>0</v>
-      </c>
-      <c r="AMG28" s="0"/>
+      <c r="H28" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="27" t="n">
+        <f aca="false">G28-K28</f>
+        <v>0</v>
+      </c>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
@@ -2053,7 +2121,7 @@
     <row r="29" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="35"/>
       <c r="B29" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="30" t="n">
@@ -2069,28 +2137,30 @@
         <f aca="false">D29-E29+F29</f>
         <v>0</v>
       </c>
-      <c r="H29" s="51"/>
-      <c r="I29" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="27" t="n">
-        <f aca="false">G29-J29</f>
-        <v>0</v>
-      </c>
-      <c r="AMG29" s="0"/>
+      <c r="H29" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="56"/>
+      <c r="J29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="27" t="n">
+        <f aca="false">G29-K29</f>
+        <v>0</v>
+      </c>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="48" t="n">
@@ -2106,20 +2176,22 @@
         <f aca="false">D30-E30+F30</f>
         <v>150270.14</v>
       </c>
-      <c r="H30" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="51" t="s">
+      <c r="H30" s="32" t="n">
+        <v>150270.14</v>
+      </c>
+      <c r="I30" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="27" t="n">
-        <f aca="false">G30-J30</f>
+      <c r="J30" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="27" t="n">
+        <f aca="false">G30-K30</f>
         <v>150270.14</v>
       </c>
-      <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
@@ -2141,16 +2213,18 @@
         <f aca="false">D31-E31+F31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="27" t="n">
-        <f aca="false">G31-J31</f>
-        <v>0</v>
-      </c>
-      <c r="AMG31" s="0"/>
+      <c r="H31" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="33"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="27" t="n">
+        <f aca="false">G31-K31</f>
+        <v>0</v>
+      </c>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
@@ -2172,23 +2246,25 @@
         <f aca="false">D32-E32+F32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="27" t="n">
-        <f aca="false">G32-J32</f>
-        <v>0</v>
-      </c>
-      <c r="AMG32" s="0"/>
+      <c r="H32" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="27" t="n">
+        <f aca="false">G32-K32</f>
+        <v>0</v>
+      </c>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
     <row r="33" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="19"/>
       <c r="D33" s="32" t="n">
         <v>0</v>
@@ -2199,249 +2275,249 @@
       <c r="F33" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="G33" s="56" t="n">
+      <c r="G33" s="61" t="n">
         <f aca="false">D33+E33-F33</f>
         <v>0</v>
       </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="27" t="n">
-        <f aca="false">G33-J33</f>
-        <v>0</v>
-      </c>
-      <c r="AMG33" s="0"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="27" t="n">
+        <f aca="false">G33-K33</f>
+        <v>0</v>
+      </c>
       <c r="AMH33" s="0"/>
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" s="64" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61" t="n">
+    <row r="34" s="69" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="64"/>
+      <c r="B34" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66" t="n">
         <f aca="false">SUM(D9:D32)</f>
         <v>117866.56</v>
       </c>
-      <c r="E34" s="61" t="n">
+      <c r="E34" s="66" t="n">
         <f aca="false">SUM(E9:E32)</f>
         <v>15494.32</v>
       </c>
-      <c r="F34" s="61" t="n">
+      <c r="F34" s="66" t="n">
         <f aca="false">SUM(F9:F32)</f>
         <v>53961.49</v>
       </c>
-      <c r="G34" s="62" t="n">
+      <c r="G34" s="67" t="n">
         <f aca="false">SUM(G9:G32)</f>
         <v>156333.73</v>
       </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="61" t="n">
-        <f aca="false">SUM(J9:J32)</f>
+      <c r="H34" s="67" t="n">
+        <f aca="false">SUM(H9:H32)</f>
+        <v>156194.73</v>
+      </c>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="66" t="n">
+        <f aca="false">SUM(K9:K32)</f>
         <v>3228</v>
       </c>
-      <c r="K34" s="63" t="n">
-        <f aca="false">SUM(K9:K32)</f>
+      <c r="L34" s="68" t="n">
+        <f aca="false">SUM(L9:L32)</f>
         <v>153105.73</v>
       </c>
-      <c r="AMG34" s="0"/>
       <c r="AMH34" s="0"/>
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="67" t="s">
-        <v>57</v>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="72" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="69" t="n">
+      <c r="B37" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74" t="n">
         <v>44196</v>
       </c>
-      <c r="E37" s="69" t="n">
+      <c r="E37" s="74" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="70"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="78"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="75" t="n">
+      <c r="B39" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="80" t="n">
         <f aca="false">SUM(G10:G14)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="75" t="n">
-        <f aca="false">SUM(J10:J14)</f>
+      <c r="E39" s="80" t="n">
+        <f aca="false">SUM(K10:K14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="75" t="n">
+      <c r="B40" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="76"/>
+      <c r="D40" s="80" t="n">
         <f aca="false">SUM(G15:G23)</f>
         <v>1797.15</v>
       </c>
-      <c r="E40" s="75" t="n">
-        <f aca="false">SUM(J15:J23)</f>
+      <c r="E40" s="80" t="n">
+        <f aca="false">SUM(K15:K23)</f>
         <v>1145</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="75" t="n">
+      <c r="B41" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="76"/>
+      <c r="D41" s="80" t="n">
         <f aca="false">SUM(G24:G28)</f>
         <v>4266.44</v>
       </c>
-      <c r="E41" s="75" t="n">
-        <f aca="false">SUM(J24:J28)</f>
+      <c r="E41" s="80" t="n">
+        <f aca="false">SUM(K24:K28)</f>
         <v>2083</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="75" t="n">
+      <c r="B42" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="80" t="n">
         <f aca="false">SUM(G29:G30)</f>
         <v>150270.14</v>
       </c>
-      <c r="E42" s="75" t="n">
-        <f aca="false">SUM(J29:J30)</f>
+      <c r="E42" s="80" t="n">
+        <f aca="false">SUM(K29:K30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="76"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="79"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="84"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="80" t="n">
+      <c r="B44" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="73"/>
+      <c r="D44" s="85" t="n">
         <f aca="false">+SUM(D39:D42)</f>
         <v>156333.73</v>
       </c>
-      <c r="E44" s="81" t="n">
+      <c r="E44" s="86" t="n">
         <f aca="false">+SUM(E39:E42)</f>
         <v>3228</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
+      <c r="A46" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" s="87"/>
+      <c r="A47" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="92"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="86"/>
-      <c r="I48" s="87"/>
+      <c r="A48" s="91"/>
+      <c r="J48" s="92"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="87"/>
+      <c r="A49" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="92"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="I50" s="87"/>
+      <c r="A50" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="92"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I51" s="87"/>
+      <c r="A51" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="J51" s="92"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="86"/>
-      <c r="I52" s="87"/>
+      <c r="A52" s="91"/>
+      <c r="J52" s="92"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="86"/>
-      <c r="I53" s="87"/>
+      <c r="A53" s="91"/>
+      <c r="J53" s="92"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="I54" s="87"/>
+      <c r="A54" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="92"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="89" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A57" s="94" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>

--- a/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6300 Pasivos por impuestos corrientes/6301 - Auditoria de Impuestos corrientes.xlsx
+++ b/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6300 Pasivos por impuestos corrientes/6301 - Auditoria de Impuestos corrientes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t xml:space="preserve">Cliente:</t>
   </si>
@@ -97,9 +97,6 @@
     <t xml:space="preserve">Créditos</t>
   </si>
   <si>
-    <t xml:space="preserve">nuevo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
@@ -182,15 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">100% Honorarios, Arrendamientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA Sobre Ventas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.7.4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iva Sobre Ventas</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -399,7 +387,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,12 +446,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -690,7 +672,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -847,14 +829,6 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -895,36 +869,28 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="11" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="11" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="11" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="11" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="172" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="17" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1165,10 +1131,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ57"/>
+  <dimension ref="A1:AMJ51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H48" activeCellId="0" sqref="H48"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1177,11 +1143,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="13" style="1" width="10.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="34.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="12" style="1" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,14 +1163,14 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="5" t="n">
+      <c r="J1" s="5" t="n">
         <v>6301</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
@@ -1222,14 +1188,14 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -1247,14 +1213,14 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="J3" s="8" t="n">
         <v>44134</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
@@ -1272,14 +1238,14 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
@@ -1297,17 +1263,18 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
@@ -1332,21 +1299,19 @@
       <c r="G7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
@@ -1367,17 +1332,15 @@
       <c r="G8" s="16" t="n">
         <v>44196</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="15" t="n">
+        <v>43830</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="15" t="n">
-        <v>43830</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
@@ -1390,11 +1353,11 @@
       <c r="E9" s="21"/>
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+      <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
@@ -1402,30 +1365,30 @@
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28"/>
       <c r="B10" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="30"/>
       <c r="F10" s="31"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="27"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="27"/>
+      <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="n">
@@ -1441,32 +1404,30 @@
         <f aca="false">D11+E11-F11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="33" t="s">
+      <c r="H11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="27" t="n">
-        <f aca="false">G11-K11</f>
-        <v>0</v>
-      </c>
+      <c r="J11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="27" t="n">
+        <f aca="false">G11-J11</f>
+        <v>0</v>
+      </c>
+      <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="n">
@@ -1482,27 +1443,25 @@
         <f aca="false">D12+E12-F12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="33" t="s">
+      <c r="H12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="27" t="n">
-        <f aca="false">G12-K12</f>
-        <v>0</v>
-      </c>
+      <c r="J12" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27" t="n">
+        <f aca="false">G12-J12</f>
+        <v>0</v>
+      </c>
+      <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="19"/>
@@ -1519,25 +1478,25 @@
         <f aca="false">D13+E13-F13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="27" t="n">
-        <f aca="false">G13-K13</f>
-        <v>0</v>
-      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27" t="n">
+        <f aca="false">G13-J13</f>
+        <v>0</v>
+      </c>
+      <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
+      <c r="B14" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="n">
         <v>0</v>
@@ -1552,351 +1511,333 @@
         <f aca="false">D14+E14-F14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="27" t="n">
-        <f aca="false">G14-K14</f>
-        <v>0</v>
-      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27" t="n">
+        <f aca="false">G14-J14</f>
+        <v>0</v>
+      </c>
+      <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="35" t="s">
         <v>32</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="E15" s="30" t="n">
-        <v>0</v>
+        <v>1411.58</v>
       </c>
       <c r="F15" s="31" t="n">
-        <v>0</v>
+        <v>1226.17</v>
       </c>
       <c r="G15" s="32" t="n">
-        <f aca="false">D15+E15-F15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="29" t="s">
+        <f aca="false">D15-E15+F15</f>
+        <v>60.5900000000001</v>
+      </c>
+      <c r="H15" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="27" t="n">
-        <f aca="false">G15-K15</f>
-        <v>0</v>
-      </c>
+      <c r="I15" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="42" t="n">
+        <v>110</v>
+      </c>
+      <c r="K15" s="27" t="n">
+        <f aca="false">G15-J15</f>
+        <v>-49.4099999999999</v>
+      </c>
+      <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="43" t="s">
         <v>34</v>
       </c>
+      <c r="B16" s="44" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="19"/>
-      <c r="D16" s="19" t="n">
-        <v>246</v>
+      <c r="D16" s="45" t="n">
+        <v>0.06</v>
       </c>
       <c r="E16" s="30" t="n">
-        <v>1411.58</v>
+        <v>1.49</v>
       </c>
       <c r="F16" s="31" t="n">
-        <v>1226.17</v>
+        <v>1.43</v>
       </c>
       <c r="G16" s="32" t="n">
         <f aca="false">D16-E16+F16</f>
-        <v>60.5900000000001</v>
-      </c>
-      <c r="H16" s="32" t="n">
-        <v>60.5900000000001</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="44" t="n">
-        <v>110</v>
-      </c>
-      <c r="L16" s="27" t="n">
-        <f aca="false">G16-K16</f>
-        <v>-49.4099999999999</v>
-      </c>
+      <c r="I16" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="46" t="n">
+        <v>550</v>
+      </c>
+      <c r="K16" s="27" t="n">
+        <f aca="false">G16-J16</f>
+        <v>-550</v>
+      </c>
+      <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="43" t="s">
         <v>36</v>
       </c>
+      <c r="B17" s="44" t="s">
+        <v>37</v>
+      </c>
       <c r="C17" s="19"/>
-      <c r="D17" s="47" t="n">
-        <v>0.06</v>
+      <c r="D17" s="46" t="n">
+        <v>810</v>
       </c>
       <c r="E17" s="30" t="n">
-        <v>1.49</v>
+        <v>1314.05</v>
       </c>
       <c r="F17" s="31" t="n">
-        <v>1.43</v>
+        <v>672</v>
       </c>
       <c r="G17" s="32" t="n">
         <f aca="false">D17-E17+F17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="46" t="s">
+        <v>167.95</v>
+      </c>
+      <c r="H17" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="48" t="n">
-        <v>550</v>
-      </c>
-      <c r="L17" s="27" t="n">
-        <f aca="false">G17-K17</f>
-        <v>-550</v>
-      </c>
+      <c r="I17" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="46" t="n">
+        <v>368</v>
+      </c>
+      <c r="K17" s="27" t="n">
+        <f aca="false">G17-J17</f>
+        <v>-200.05</v>
+      </c>
+      <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="43" t="s">
         <v>38</v>
       </c>
+      <c r="B18" s="44" t="s">
+        <v>39</v>
+      </c>
       <c r="C18" s="19"/>
-      <c r="D18" s="48" t="n">
-        <v>810</v>
+      <c r="D18" s="46" t="n">
+        <v>117</v>
       </c>
       <c r="E18" s="30" t="n">
-        <v>1314.05</v>
+        <v>467.4</v>
       </c>
       <c r="F18" s="31" t="n">
-        <v>672</v>
+        <v>467.4</v>
       </c>
       <c r="G18" s="32" t="n">
         <f aca="false">D18-E18+F18</f>
-        <v>167.95</v>
-      </c>
-      <c r="H18" s="32" t="n">
-        <v>167.95</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="48" t="n">
-        <v>368</v>
-      </c>
-      <c r="L18" s="27" t="n">
-        <f aca="false">G18-K18</f>
-        <v>-200.05</v>
-      </c>
+      <c r="I18" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="27" t="n">
+        <f aca="false">G18-J18</f>
+        <v>117</v>
+      </c>
+      <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="48" t="n">
+      <c r="B19" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="50" t="n">
+        <f aca="false">D19-E19+F19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="19" t="n">
         <v>117</v>
       </c>
-      <c r="E19" s="30" t="n">
-        <v>467.4</v>
-      </c>
-      <c r="F19" s="31" t="n">
-        <v>467.4</v>
-      </c>
-      <c r="G19" s="32" t="n">
-        <f aca="false">D19-E19+F19</f>
-        <v>117</v>
-      </c>
-      <c r="H19" s="32" t="n">
-        <v>117</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="27" t="n">
-        <f aca="false">G19-K19</f>
-        <v>117</v>
-      </c>
+      <c r="K19" s="27" t="n">
+        <f aca="false">G19-J19</f>
+        <v>-117</v>
+      </c>
+      <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53" t="n">
-        <v>139</v>
-      </c>
-      <c r="E20" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="52" t="n">
+      <c r="B20" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="30" t="n">
+        <v>98.76</v>
+      </c>
+      <c r="F20" s="31" t="n">
+        <v>154.24</v>
+      </c>
+      <c r="G20" s="32" t="n">
         <f aca="false">D20-E20+F20</f>
-        <v>139</v>
-      </c>
-      <c r="H20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="50" t="s">
+        <v>55.48</v>
+      </c>
+      <c r="H20" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="19" t="n">
-        <v>117</v>
-      </c>
-      <c r="L20" s="27" t="n">
-        <f aca="false">G20-K20</f>
-        <v>22</v>
-      </c>
+      <c r="I20" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="27" t="n">
+        <f aca="false">G20-J20</f>
+        <v>55.48</v>
+      </c>
+      <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="43" t="s">
         <v>44</v>
       </c>
+      <c r="B21" s="43" t="s">
+        <v>45</v>
+      </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="48" t="n">
-        <v>0</v>
+      <c r="D21" s="46" t="n">
+        <v>689.5</v>
       </c>
       <c r="E21" s="30" t="n">
-        <v>98.76</v>
+        <v>2343.24</v>
       </c>
       <c r="F21" s="31" t="n">
-        <v>154.24</v>
+        <v>2910.87</v>
       </c>
       <c r="G21" s="32" t="n">
         <f aca="false">D21-E21+F21</f>
-        <v>55.48</v>
-      </c>
-      <c r="H21" s="32" t="n">
-        <v>55.48</v>
-      </c>
-      <c r="I21" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="45" t="s">
+        <v>1257.13</v>
+      </c>
+      <c r="H21" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="27" t="n">
-        <f aca="false">G21-K21</f>
-        <v>55.48</v>
-      </c>
+      <c r="I21" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="27" t="n">
+        <f aca="false">G21-J21</f>
+        <v>1257.13</v>
+      </c>
+      <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>46</v>
-      </c>
+    <row r="22" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="48" t="n">
-        <v>689.5</v>
+      <c r="D22" s="30" t="n">
+        <v>0</v>
       </c>
       <c r="E22" s="30" t="n">
-        <v>2343.24</v>
+        <v>0</v>
       </c>
       <c r="F22" s="31" t="n">
-        <v>2910.87</v>
+        <v>0</v>
       </c>
       <c r="G22" s="32" t="n">
         <f aca="false">D22-E22+F22</f>
-        <v>1257.13</v>
-      </c>
-      <c r="H22" s="32" t="n">
-        <v>1257.13</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="27" t="n">
-        <f aca="false">G22-K22</f>
-        <v>1257.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="27" t="n">
+        <f aca="false">G22-J22</f>
+        <v>0</v>
+      </c>
+      <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="C23" s="19"/>
-      <c r="D23" s="30" t="n">
+      <c r="D23" s="46" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="30" t="n">
@@ -1909,615 +1850,399 @@
         <f aca="false">D23-E23+F23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="27" t="n">
-        <f aca="false">G23-K23</f>
-        <v>0</v>
-      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="27" t="n">
+        <f aca="false">G23-J23</f>
+        <v>0</v>
+      </c>
+      <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35"/>
-      <c r="B24" s="29" t="s">
+    <row r="24" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="35" t="s">
         <v>47</v>
       </c>
+      <c r="B24" s="35" t="s">
+        <v>48</v>
+      </c>
       <c r="C24" s="19"/>
-      <c r="D24" s="48" t="n">
-        <v>0</v>
+      <c r="D24" s="30" t="n">
+        <v>230</v>
       </c>
       <c r="E24" s="30" t="n">
-        <v>0</v>
+        <v>2568.94</v>
       </c>
       <c r="F24" s="31" t="n">
-        <v>0</v>
+        <v>2464.81</v>
       </c>
       <c r="G24" s="32" t="n">
         <f aca="false">D24-E24+F24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="29" t="s">
+        <v>125.87</v>
+      </c>
+      <c r="H24" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="27" t="n">
-        <f aca="false">G24-K24</f>
-        <v>0</v>
-      </c>
+      <c r="I24" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="19" t="n">
+        <v>68</v>
+      </c>
+      <c r="K24" s="27" t="n">
+        <f aca="false">G24-J24</f>
+        <v>57.8699999999999</v>
+      </c>
+      <c r="AMG24" s="0"/>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="30" t="n">
-        <v>230</v>
+      <c r="D25" s="46" t="n">
+        <v>1330</v>
       </c>
       <c r="E25" s="30" t="n">
-        <v>2568.94</v>
+        <v>6108.44</v>
       </c>
       <c r="F25" s="31" t="n">
-        <v>2464.81</v>
+        <v>8667.01</v>
       </c>
       <c r="G25" s="32" t="n">
         <f aca="false">D25-E25+F25</f>
-        <v>125.87</v>
-      </c>
-      <c r="H25" s="32" t="n">
-        <v>125.87</v>
-      </c>
-      <c r="I25" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="56" t="s">
+        <v>3888.57</v>
+      </c>
+      <c r="H25" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="19" t="n">
-        <v>68</v>
-      </c>
-      <c r="L25" s="27" t="n">
-        <f aca="false">G25-K25</f>
-        <v>57.8699999999999</v>
-      </c>
+      <c r="I25" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="19" t="n">
+        <v>1757</v>
+      </c>
+      <c r="K25" s="27" t="n">
+        <f aca="false">G25-J25</f>
+        <v>2131.57</v>
+      </c>
+      <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="19"/>
-      <c r="D26" s="48" t="n">
-        <v>1330</v>
+      <c r="D26" s="30" t="n">
+        <v>252</v>
       </c>
       <c r="E26" s="30" t="n">
-        <v>6108.44</v>
+        <v>1008</v>
       </c>
       <c r="F26" s="31" t="n">
-        <v>8667.01</v>
+        <v>1008</v>
       </c>
       <c r="G26" s="32" t="n">
         <f aca="false">D26-E26+F26</f>
-        <v>3888.57</v>
-      </c>
-      <c r="H26" s="32" t="n">
-        <v>3888.57</v>
-      </c>
-      <c r="I26" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="19" t="n">
-        <v>1757</v>
-      </c>
-      <c r="L26" s="27" t="n">
-        <f aca="false">G26-K26</f>
-        <v>2131.57</v>
-      </c>
+      <c r="I26" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="19" t="n">
+        <v>258</v>
+      </c>
+      <c r="K26" s="27" t="n">
+        <f aca="false">G26-J26</f>
+        <v>-6</v>
+      </c>
+      <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>53</v>
-      </c>
+    <row r="27" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="30" t="n">
-        <v>252</v>
+      <c r="D27" s="46" t="n">
+        <v>0</v>
       </c>
       <c r="E27" s="30" t="n">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="F27" s="31" t="n">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="G27" s="32" t="n">
         <f aca="false">D27-E27+F27</f>
-        <v>252</v>
-      </c>
-      <c r="H27" s="32" t="n">
-        <v>252</v>
-      </c>
-      <c r="I27" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="19" t="n">
-        <v>258</v>
-      </c>
-      <c r="L27" s="27" t="n">
-        <f aca="false">G27-K27</f>
-        <v>-6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="27" t="n">
+        <f aca="false">G27-J27</f>
+        <v>0</v>
+      </c>
+      <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
+    <row r="28" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="32" t="n">
-        <f aca="false">D28-E28+F28</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="27" t="n">
-        <f aca="false">G28-K28</f>
-        <v>0</v>
-      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="27" t="n">
+        <f aca="false">G28-J28</f>
+        <v>0</v>
+      </c>
+      <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35"/>
-      <c r="B29" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="32" t="n">
-        <f aca="false">D29-E29+F29</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="27" t="n">
-        <f aca="false">G29-K29</f>
-        <v>0</v>
-      </c>
+    <row r="29" s="65" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="60"/>
+      <c r="B29" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62" t="n">
+        <f aca="false">SUM(D9:D27)</f>
+        <v>3674.56</v>
+      </c>
+      <c r="E29" s="62" t="n">
+        <f aca="false">SUM(E9:E27)</f>
+        <v>15321.9</v>
+      </c>
+      <c r="F29" s="62" t="n">
+        <f aca="false">SUM(F9:F27)</f>
+        <v>17571.93</v>
+      </c>
+      <c r="G29" s="63" t="n">
+        <f aca="false">SUM(G9:G27)</f>
+        <v>5924.59</v>
+      </c>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="62" t="n">
+        <f aca="false">SUM(J9:J27)</f>
+        <v>3228</v>
+      </c>
+      <c r="K29" s="64" t="n">
+        <f aca="false">SUM(K9:K27)</f>
+        <v>2696.59</v>
+      </c>
+      <c r="AMG29" s="0"/>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="C32" s="69"/>
+      <c r="D32" s="70" t="n">
+        <v>44196</v>
+      </c>
+      <c r="E32" s="70" t="n">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="71"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="72"/>
+      <c r="D34" s="76" t="n">
+        <f aca="false">SUM(G10:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="76" t="n">
+        <f aca="false">SUM(J10:J13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="72"/>
+      <c r="D35" s="76" t="n">
+        <f aca="false">SUM(G14:G22)</f>
+        <v>1658.15</v>
+      </c>
+      <c r="E35" s="76" t="n">
+        <f aca="false">SUM(J14:J22)</f>
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="72"/>
+      <c r="D36" s="76" t="n">
+        <f aca="false">SUM(G23:G27)</f>
+        <v>4266.44</v>
+      </c>
+      <c r="E36" s="76" t="n">
+        <f aca="false">SUM(J23:J27)</f>
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="80"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="69"/>
+      <c r="D38" s="81" t="n">
+        <f aca="false">+SUM(D34:D36)</f>
+        <v>5924.59</v>
+      </c>
+      <c r="E38" s="82" t="n">
+        <f aca="false">+SUM(E34:E36)</f>
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="48" t="n">
-        <v>114053</v>
-      </c>
-      <c r="E30" s="30" t="n">
-        <v>172.42</v>
-      </c>
-      <c r="F30" s="31" t="n">
-        <v>36389.56</v>
-      </c>
-      <c r="G30" s="32" t="n">
-        <f aca="false">D30-E30+F30</f>
-        <v>150270.14</v>
-      </c>
-      <c r="H30" s="32" t="n">
-        <v>150270.14</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="27" t="n">
-        <f aca="false">G30-K30</f>
-        <v>150270.14</v>
-      </c>
-      <c r="AMH30" s="0"/>
-      <c r="AMI30" s="0"/>
-      <c r="AMJ30" s="0"/>
-    </row>
-    <row r="31" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="32" t="n">
-        <f aca="false">D31-E31+F31</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="27" t="n">
-        <f aca="false">G31-K31</f>
-        <v>0</v>
-      </c>
-      <c r="AMH31" s="0"/>
-      <c r="AMI31" s="0"/>
-      <c r="AMJ31" s="0"/>
-    </row>
-    <row r="32" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="32" t="n">
-        <f aca="false">D32-E32+F32</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="27" t="n">
-        <f aca="false">G32-K32</f>
-        <v>0</v>
-      </c>
-      <c r="AMH32" s="0"/>
-      <c r="AMI32" s="0"/>
-      <c r="AMJ32" s="0"/>
-    </row>
-    <row r="33" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="59"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="61" t="n">
-        <f aca="false">D33+E33-F33</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="27" t="n">
-        <f aca="false">G33-K33</f>
-        <v>0</v>
-      </c>
-      <c r="AMH33" s="0"/>
-      <c r="AMI33" s="0"/>
-      <c r="AMJ33" s="0"/>
-    </row>
-    <row r="34" s="69" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65" t="s">
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66" t="n">
-        <f aca="false">SUM(D9:D32)</f>
-        <v>117866.56</v>
-      </c>
-      <c r="E34" s="66" t="n">
-        <f aca="false">SUM(E9:E32)</f>
-        <v>15494.32</v>
-      </c>
-      <c r="F34" s="66" t="n">
-        <f aca="false">SUM(F9:F32)</f>
-        <v>53961.49</v>
-      </c>
-      <c r="G34" s="67" t="n">
-        <f aca="false">SUM(G9:G32)</f>
-        <v>156333.73</v>
-      </c>
-      <c r="H34" s="67" t="n">
-        <f aca="false">SUM(H9:H32)</f>
-        <v>156194.73</v>
-      </c>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="66" t="n">
-        <f aca="false">SUM(K9:K32)</f>
-        <v>3228</v>
-      </c>
-      <c r="L34" s="68" t="n">
-        <f aca="false">SUM(L9:L32)</f>
-        <v>153105.73</v>
-      </c>
-      <c r="AMH34" s="0"/>
-      <c r="AMI34" s="0"/>
-      <c r="AMJ34" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="71" t="s">
+      <c r="I41" s="88"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="87"/>
+      <c r="I42" s="88"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="73" t="s">
+      <c r="I43" s="88"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="74" t="n">
-        <v>44196</v>
-      </c>
-      <c r="E37" s="74" t="n">
-        <v>43830</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="75"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="78"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="80" t="n">
-        <f aca="false">SUM(G10:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="80" t="n">
-        <f aca="false">SUM(K10:K14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="80" t="n">
-        <f aca="false">SUM(G15:G23)</f>
-        <v>1797.15</v>
-      </c>
-      <c r="E40" s="80" t="n">
-        <f aca="false">SUM(K15:K23)</f>
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="80" t="n">
-        <f aca="false">SUM(G24:G28)</f>
-        <v>4266.44</v>
-      </c>
-      <c r="E41" s="80" t="n">
-        <f aca="false">SUM(K24:K28)</f>
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="80" t="n">
-        <f aca="false">SUM(G29:G30)</f>
-        <v>150270.14</v>
-      </c>
-      <c r="E42" s="80" t="n">
-        <f aca="false">SUM(K29:K30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="84"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="85" t="n">
-        <f aca="false">+SUM(D39:D42)</f>
-        <v>156333.73</v>
-      </c>
-      <c r="E44" s="86" t="n">
-        <f aca="false">+SUM(E39:E42)</f>
-        <v>3228</v>
-      </c>
+      <c r="I44" s="88"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="88"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
+      <c r="A46" s="87"/>
       <c r="I46" s="88"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="91" t="s">
+      <c r="A47" s="87"/>
+      <c r="I47" s="88"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="J47" s="92"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="91"/>
-      <c r="J48" s="92"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="93" t="s">
+      <c r="I48" s="88"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="90" t="s">
         <v>62</v>
-      </c>
-      <c r="J49" s="92"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="J50" s="92"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="J51" s="92"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="91"/>
-      <c r="J52" s="92"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="91"/>
-      <c r="J53" s="92"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="J54" s="92"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="94" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
